--- a/iot_warsztaty/pomiar/tabelka1.xlsx
+++ b/iot_warsztaty/pomiar/tabelka1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\iot_warsztaty\pomiar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE98077-0129-4ED3-A9FF-78B182F727F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403397EC-6706-4CFF-B6C6-3D6BCED15052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -196,8 +193,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -214,18 +211,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$2:$D$35</c:f>
               <c:numCache>
@@ -335,8 +342,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$E$2:$E$35</c:f>
               <c:numCache>
@@ -446,7 +453,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -462,11 +469,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1424457632"/>
         <c:axId val="1424454720"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1424457632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -526,11 +532,8 @@
         </c:txPr>
         <c:crossAx val="1424454720"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1424454720"/>
         <c:scaling>
@@ -591,7 +594,7 @@
         </c:txPr>
         <c:crossAx val="1424457632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -714,8 +717,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -732,18 +735,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$2:$D$35</c:f>
               <c:numCache>
@@ -853,8 +866,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$F$2:$F$35</c:f>
               <c:numCache>
@@ -964,7 +977,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -980,11 +993,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1424457632"/>
         <c:axId val="1424454720"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1424457632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1044,11 +1056,8 @@
         </c:txPr>
         <c:crossAx val="1424454720"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1424454720"/>
         <c:scaling>
@@ -1109,7 +1118,7 @@
         </c:txPr>
         <c:crossAx val="1424457632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1742,8 +1751,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1760,18 +1769,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz2!$D$2:$D$34</c:f>
               <c:numCache>
@@ -1878,8 +1897,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz2!$E$2:$E$34</c:f>
               <c:numCache>
@@ -1986,7 +2005,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2002,11 +2021,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="878937184"/>
         <c:axId val="878938432"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="878937184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2052,11 +2070,8 @@
         </c:txPr>
         <c:crossAx val="878938432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="878938432"/>
         <c:scaling>
@@ -2113,7 +2128,7 @@
         </c:txPr>
         <c:crossAx val="878937184"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2270,8 +2285,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2288,18 +2303,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz2!$D$2:$D$34</c:f>
               <c:numCache>
@@ -2406,8 +2431,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz2!$F$2:$F$34</c:f>
               <c:numCache>
@@ -2514,7 +2539,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2530,11 +2555,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="878937184"/>
         <c:axId val="878938432"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="878937184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2580,11 +2604,8 @@
         </c:txPr>
         <c:crossAx val="878938432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="878938432"/>
         <c:scaling>
@@ -2641,7 +2662,7 @@
         </c:txPr>
         <c:crossAx val="878937184"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6824,19 +6845,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Arkusz1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -7136,7 +7144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +7765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA342FB3-40AA-4224-8047-D7DF251D36A1}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
